--- a/Code/results/knn/crossval/summary.xlsx
+++ b/Code/results/knn/crossval/summary.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15795" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15795" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
   <si>
     <t>FJLT type</t>
   </si>
@@ -67,6 +69,57 @@
   </si>
   <si>
     <t>11-06-18_10-19-49-381cross_validation_error</t>
+  </si>
+  <si>
+    <t>ans =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3×1 cell array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {'setosa'    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {'versicolor'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {'virginica' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50     0     0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     0     0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0    47     4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     3    46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0    41     6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     9    44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50     1     0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0    46     9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     3    41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50     2     1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0    43    16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     5    33</t>
   </si>
 </sst>
 </file>
@@ -110,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -123,6 +176,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,24 +493,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="8" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -468,16 +525,17 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -490,325 +548,328 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>46</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>49</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>43</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>0.13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="G14">
         <v>50</v>
       </c>
-      <c r="G12">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>41</v>
       </c>
-      <c r="H13">
+      <c r="I15">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="I16">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>5.33E-2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="G19">
         <v>50</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>48</v>
       </c>
-      <c r="H17">
+      <c r="I20">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I21" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="G24">
         <v>50</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>47</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I25" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I26" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -817,24 +878,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="8" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -848,16 +910,17 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -870,327 +933,657 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>48</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.08</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>49</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>48</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>0.1133</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="G14">
         <v>49</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="H15">
         <v>44</v>
       </c>
-      <c r="H13">
+      <c r="I15">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="I16">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="G19">
         <v>50</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>47</v>
       </c>
-      <c r="H17">
+      <c r="I20">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I21" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>5.33E-2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="G24">
         <v>50</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>46</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I25" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I26" s="5">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8.6699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>